--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -542,10 +542,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H2:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1245,26 +1245,75 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
+      <c r="A30" s="14">
+        <v>43924</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="18">
+        <v>459</v>
+      </c>
+      <c r="E30" s="13">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" ref="F30:F31" si="1">PRODUCT(D30,E30)</f>
+        <v>2060.9100000000003</v>
+      </c>
+      <c r="G30" s="23">
+        <f>SUM(F30,F31)</f>
+        <v>2607.6600000000003</v>
+      </c>
+      <c r="H30" s="23">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
+      <c r="D31" s="15">
+        <v>225</v>
+      </c>
+      <c r="E31" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="1"/>
+        <v>546.75</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="23">
-        <f>SUM(G2:G29)</f>
-        <v>14226.400000000001</v>
-      </c>
-      <c r="H30" s="23">
-        <f>SUM(H2:H29)</f>
-        <v>14214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
+      <c r="G32" s="23">
+        <f>SUM(G2:G31)</f>
+        <v>16834.060000000001</v>
+      </c>
+      <c r="H32" s="23">
+        <f>SUM(H2:H30)</f>
+        <v>16822</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23">
-        <f>SUM(H30,-G30)</f>
-        <v>-12.400000000001455</v>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23">
+        <f>SUM(H32,-G32)</f>
+        <v>-12.06000000000131</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -542,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H2:H31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1294,26 +1288,118 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="2" t="s">
-        <v>10</v>
+      <c r="A32" s="14">
+        <v>43957</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="18">
+        <v>162</v>
+      </c>
+      <c r="E32" s="13">
+        <v>4.49</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" ref="F32:F33" si="2">PRODUCT(D32,E32)</f>
+        <v>727.38</v>
       </c>
       <c r="G32" s="23">
-        <f>SUM(G2:G31)</f>
-        <v>16834.060000000001</v>
+        <f>SUM(F32,F33)</f>
+        <v>882.9</v>
       </c>
       <c r="H32" s="23">
-        <f>SUM(H2:H30)</f>
-        <v>16822</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <v>64</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="2"/>
+        <v>155.52000000000001</v>
       </c>
       <c r="G33" s="23"/>
-      <c r="H33" s="23">
-        <f>SUM(H32,-G32)</f>
-        <v>-12.06000000000131</v>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>43984</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <v>168</v>
+      </c>
+      <c r="E34" s="13">
+        <v>4.49</v>
+      </c>
+      <c r="F34" s="22">
+        <f t="shared" ref="F34:F35" si="3">PRODUCT(D34,E34)</f>
+        <v>754.32</v>
+      </c>
+      <c r="G34" s="23">
+        <f>SUM(F34,F35)</f>
+        <v>878.25</v>
+      </c>
+      <c r="H34" s="23">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
+        <v>51</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F35" s="22">
+        <f t="shared" si="3"/>
+        <v>123.93</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="23">
+        <f>SUM(G4:G35)</f>
+        <v>18595.210000000003</v>
+      </c>
+      <c r="H36" s="23">
+        <f>SUM(H4:H35)</f>
+        <v>18584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+      <c r="H37" s="23">
+        <f>SUM(H36,-G36)</f>
+        <v>-11.210000000002765</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -536,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1386,19 +1386,68 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>44011</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="18">
+        <v>144</v>
+      </c>
+      <c r="E36" s="13">
+        <v>4.49</v>
+      </c>
+      <c r="F36" s="22">
+        <f t="shared" ref="F36:F37" si="4">PRODUCT(D36,E36)</f>
+        <v>646.56000000000006</v>
+      </c>
       <c r="G36" s="23">
-        <f>SUM(G4:G35)</f>
-        <v>18595.210000000003</v>
+        <f>SUM(F36,F37)</f>
+        <v>909</v>
       </c>
       <c r="H36" s="23">
-        <f>SUM(H4:H35)</f>
-        <v>18584</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="2"/>
-      <c r="H37" s="23">
-        <f>SUM(H36,-G36)</f>
+      <c r="A37" s="16"/>
+      <c r="B37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="15">
+        <v>108</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" si="4"/>
+        <v>262.44</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="23">
+        <f>SUM(G4:G37)</f>
+        <v>19504.210000000003</v>
+      </c>
+      <c r="H38" s="23">
+        <f>SUM(H4:H37)</f>
+        <v>19493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+      <c r="H39" s="23">
+        <f>SUM(H38,-G38)</f>
         <v>-11.210000000002765</v>
       </c>
     </row>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -536,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1435,20 +1435,69 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>44048</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="18">
+        <v>224</v>
+      </c>
+      <c r="E38" s="13">
+        <v>4.49</v>
+      </c>
+      <c r="F38" s="22">
+        <f t="shared" ref="F38:F39" si="5">PRODUCT(D38,E38)</f>
+        <v>1005.76</v>
+      </c>
       <c r="G38" s="23">
-        <f>SUM(G4:G37)</f>
-        <v>19504.210000000003</v>
+        <f>SUM(F38,F39)</f>
+        <v>1209.8800000000001</v>
       </c>
       <c r="H38" s="23">
-        <f>SUM(H4:H37)</f>
-        <v>19493</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G39" s="2"/>
-      <c r="H39" s="23">
-        <f>SUM(H38,-G38)</f>
-        <v>-11.210000000002765</v>
+      <c r="A39" s="16"/>
+      <c r="B39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="15">
+        <v>84</v>
+      </c>
+      <c r="E39" s="13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F39" s="22">
+        <f t="shared" si="5"/>
+        <v>204.12</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="23">
+        <f>SUM(G4:G39)</f>
+        <v>20714.090000000004</v>
+      </c>
+      <c r="H40" s="23">
+        <f>SUM(H4:H39)</f>
+        <v>20763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+      <c r="H41" s="23">
+        <f>SUM(H40,-G40)</f>
+        <v>48.909999999996217</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -536,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1402,7 @@
         <v>4.49</v>
       </c>
       <c r="F36" s="22">
-        <f t="shared" ref="F36:F37" si="4">PRODUCT(D36,E36)</f>
+        <f t="shared" ref="F36:F39" si="4">PRODUCT(D36,E36)</f>
         <v>646.56000000000006</v>
       </c>
       <c r="G36" s="23">
@@ -1448,15 +1448,15 @@
         <v>224</v>
       </c>
       <c r="E38" s="13">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F38" s="22">
-        <f t="shared" ref="F38:F39" si="5">PRODUCT(D38,E38)</f>
-        <v>1005.76</v>
+        <f t="shared" si="4"/>
+        <v>1055.04</v>
       </c>
       <c r="G38" s="23">
         <f>SUM(F38,F39)</f>
-        <v>1209.8800000000001</v>
+        <v>1269.24</v>
       </c>
       <c r="H38" s="23">
         <v>1270</v>
@@ -1474,30 +1474,79 @@
         <v>84</v>
       </c>
       <c r="E39" s="13">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F39" s="22">
-        <f t="shared" si="5"/>
-        <v>204.12</v>
+        <f t="shared" si="4"/>
+        <v>214.2</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>44076</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
+      <c r="D40" s="18">
+        <v>190</v>
+      </c>
+      <c r="E40" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F40" s="22">
+        <f t="shared" ref="F40:F41" si="5">PRODUCT(D40,E40)</f>
+        <v>894.9</v>
+      </c>
       <c r="G40" s="23">
-        <f>SUM(G4:G39)</f>
-        <v>20714.090000000004</v>
+        <f>SUM(F40,F41)</f>
+        <v>1053</v>
       </c>
       <c r="H40" s="23">
-        <f>SUM(H4:H39)</f>
-        <v>20763</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G41" s="2"/>
-      <c r="H41" s="23">
-        <f>SUM(H40,-G40)</f>
-        <v>48.909999999996217</v>
+      <c r="A41" s="16"/>
+      <c r="B41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0</v>
+      </c>
+      <c r="D41" s="15">
+        <v>62</v>
+      </c>
+      <c r="E41" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F41" s="22">
+        <f t="shared" si="5"/>
+        <v>158.1</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="23">
+        <f>SUM(G4:G41)</f>
+        <v>21826.450000000004</v>
+      </c>
+      <c r="H42" s="23">
+        <f>SUM(H4:H41)</f>
+        <v>21817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+      <c r="H43" s="23">
+        <f>SUM(H42,-G42)</f>
+        <v>-9.4500000000043656</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -536,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1533,20 +1533,69 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>44110</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="18">
+        <v>200</v>
+      </c>
+      <c r="E42" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F42" s="22">
+        <f t="shared" ref="F42:F43" si="6">PRODUCT(D42,E42)</f>
+        <v>942</v>
+      </c>
       <c r="G42" s="23">
-        <f>SUM(G4:G41)</f>
-        <v>21826.450000000004</v>
+        <f>SUM(F42,F43)</f>
+        <v>1130.7</v>
       </c>
       <c r="H42" s="23">
-        <f>SUM(H4:H41)</f>
-        <v>21817</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G43" s="2"/>
-      <c r="H43" s="23">
-        <f>SUM(H42,-G42)</f>
-        <v>-9.4500000000043656</v>
+      <c r="A43" s="16"/>
+      <c r="B43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0</v>
+      </c>
+      <c r="D43" s="15">
+        <v>74</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" si="6"/>
+        <v>188.7</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="23">
+        <f>SUM(G4:G43)</f>
+        <v>22957.150000000005</v>
+      </c>
+      <c r="H44" s="23">
+        <f>SUM(H4:H43)</f>
+        <v>22948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+      <c r="H45" s="23">
+        <f>SUM(H44,-G44)</f>
+        <v>-9.1500000000050932</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -536,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1582,20 +1582,118 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>44138</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="18">
+        <v>381</v>
+      </c>
+      <c r="E44" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F44" s="22">
+        <f t="shared" ref="F44:F45" si="7">PRODUCT(D44,E44)</f>
+        <v>1794.51</v>
+      </c>
       <c r="G44" s="23">
-        <f>SUM(G4:G43)</f>
-        <v>22957.150000000005</v>
+        <f>SUM(F44,F45)</f>
+        <v>2177.0100000000002</v>
       </c>
       <c r="H44" s="23">
-        <f>SUM(H4:H43)</f>
-        <v>22948</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G45" s="2"/>
-      <c r="H45" s="23">
-        <f>SUM(H44,-G44)</f>
-        <v>-9.1500000000050932</v>
+      <c r="A45" s="16"/>
+      <c r="B45" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="15">
+        <v>150</v>
+      </c>
+      <c r="E45" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F45" s="22">
+        <f t="shared" si="7"/>
+        <v>382.5</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>44165</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="18">
+        <v>150</v>
+      </c>
+      <c r="E46" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F46" s="22">
+        <f t="shared" ref="F46:F47" si="8">PRODUCT(D46,E46)</f>
+        <v>706.5</v>
+      </c>
+      <c r="G46" s="23">
+        <f>SUM(F46,F47)</f>
+        <v>836.55</v>
+      </c>
+      <c r="H46" s="23">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0</v>
+      </c>
+      <c r="D47" s="15">
+        <v>51</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F47" s="22">
+        <f t="shared" si="8"/>
+        <v>130.04999999999998</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="23">
+        <f>SUM(G4:G47)</f>
+        <v>25970.710000000003</v>
+      </c>
+      <c r="H48" s="23">
+        <f>SUM(H4:H47)</f>
+        <v>25962</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+      <c r="H49" s="23">
+        <f>SUM(H48,-G48)</f>
+        <v>-8.7100000000027649</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -536,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1680,20 +1680,167 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>44230</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0</v>
+      </c>
+      <c r="D48" s="18">
+        <v>328</v>
+      </c>
+      <c r="E48" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F48" s="22">
+        <f t="shared" ref="F48:F49" si="9">PRODUCT(D48,E48)</f>
+        <v>1544.8799999999999</v>
+      </c>
       <c r="G48" s="23">
-        <f>SUM(G4:G47)</f>
-        <v>25970.710000000003</v>
+        <f>SUM(F48,F49)</f>
+        <v>1896.7799999999997</v>
       </c>
       <c r="H48" s="23">
-        <f>SUM(H4:H47)</f>
-        <v>25962</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G49" s="2"/>
-      <c r="H49" s="23">
-        <f>SUM(H48,-G48)</f>
-        <v>-8.7100000000027649</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0</v>
+      </c>
+      <c r="D49" s="15">
+        <v>138</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F49" s="22">
+        <f t="shared" si="9"/>
+        <v>351.9</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>44266</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0</v>
+      </c>
+      <c r="D50" s="18">
+        <v>328</v>
+      </c>
+      <c r="E50" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F50" s="22">
+        <f t="shared" ref="F50:F51" si="10">PRODUCT(D50,E50)</f>
+        <v>1544.8799999999999</v>
+      </c>
+      <c r="G50" s="23">
+        <f>SUM(F50,F51)</f>
+        <v>1896.7799999999997</v>
+      </c>
+      <c r="H50" s="23">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="15">
+        <v>138</v>
+      </c>
+      <c r="E51" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F51" s="22">
+        <f t="shared" si="10"/>
+        <v>351.9</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>43921</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0</v>
+      </c>
+      <c r="D52" s="18">
+        <v>174</v>
+      </c>
+      <c r="E52" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F52" s="22">
+        <f t="shared" ref="F52:F53" si="11">PRODUCT(D52,E52)</f>
+        <v>819.54</v>
+      </c>
+      <c r="G52" s="23">
+        <f>SUM(F52,F53)</f>
+        <v>1018.4399999999999</v>
+      </c>
+      <c r="H52" s="23">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
+        <v>78</v>
+      </c>
+      <c r="E53" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F53" s="22">
+        <f t="shared" si="11"/>
+        <v>198.89999999999998</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="23">
+        <f>SUM(G4:G53)</f>
+        <v>30782.71</v>
+      </c>
+      <c r="H54" s="23">
+        <f>SUM(H4:H53)</f>
+        <v>30989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+      <c r="H55" s="23">
+        <f>SUM(H54,-G54)</f>
+        <v>206.29000000000087</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -536,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1827,20 +1827,69 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>44354</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0</v>
+      </c>
+      <c r="D54" s="18">
+        <v>315</v>
+      </c>
+      <c r="E54" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F54" s="22">
+        <f t="shared" ref="F54:F55" si="12">PRODUCT(D54,E54)</f>
+        <v>1483.65</v>
+      </c>
       <c r="G54" s="23">
-        <f>SUM(G4:G53)</f>
-        <v>30782.71</v>
+        <f>SUM(F54,F55)</f>
+        <v>1667.25</v>
       </c>
       <c r="H54" s="23">
-        <f>SUM(H4:H53)</f>
-        <v>30989</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G55" s="2"/>
-      <c r="H55" s="23">
-        <f>SUM(H54,-G54)</f>
-        <v>206.29000000000087</v>
+      <c r="A55" s="16"/>
+      <c r="B55" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="15">
+        <v>72</v>
+      </c>
+      <c r="E55" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F55" s="22">
+        <f t="shared" si="12"/>
+        <v>183.6</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="23">
+        <f>SUM(G4:G55)</f>
+        <v>32449.96</v>
+      </c>
+      <c r="H56" s="23">
+        <f>SUM(H4:H55)</f>
+        <v>32657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="2"/>
+      <c r="H57" s="23">
+        <f>SUM(H56,-G56)</f>
+        <v>207.04000000000087</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -536,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1876,26 +1876,75 @@
       <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>44375</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11">
+        <v>147</v>
+      </c>
+      <c r="E56" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F56" s="22">
+        <f t="shared" ref="F56:F57" si="13">PRODUCT(D56,E56)</f>
+        <v>692.37</v>
+      </c>
       <c r="G56" s="23">
+        <f>SUM(F56,F57)</f>
+        <v>1179.42</v>
+      </c>
+      <c r="H56" s="23">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0</v>
+      </c>
+      <c r="D57" s="11">
+        <v>191</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F57" s="22">
+        <f t="shared" si="13"/>
+        <v>487.04999999999995</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="23">
         <f>SUM(G4:G55)</f>
         <v>32449.96</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H58" s="23">
         <f>SUM(H4:H55)</f>
         <v>32657</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G57" s="2"/>
-      <c r="H57" s="23">
-        <f>SUM(H56,-G56)</f>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+      <c r="H59" s="23">
+        <f>SUM(H58,-G58)</f>
         <v>207.04000000000087</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -229,6 +229,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,10 +550,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,7 +570,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -582,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>43459</v>
       </c>
@@ -598,7 +612,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -612,7 +626,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43501</v>
       </c>
@@ -641,7 +655,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -663,7 +677,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43527</v>
       </c>
@@ -690,7 +704,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="15" t="s">
         <v>1</v>
@@ -710,7 +724,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43558</v>
       </c>
@@ -737,7 +751,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="15" t="s">
         <v>1</v>
@@ -757,7 +771,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43585</v>
       </c>
@@ -784,7 +798,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="15" t="s">
         <v>1</v>
@@ -804,7 +818,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>43619</v>
       </c>
@@ -831,7 +845,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
         <v>1</v>
@@ -852,7 +866,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43644</v>
       </c>
@@ -879,7 +893,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
         <v>1</v>
@@ -899,7 +913,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>43681</v>
       </c>
@@ -925,8 +939,14 @@
       <c r="H16" s="23">
         <v>1100</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="15" t="s">
         <v>1</v>
@@ -945,8 +965,14 @@
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43711</v>
       </c>
@@ -972,8 +998,14 @@
       <c r="H18" s="23">
         <v>861</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="15" t="s">
         <v>1</v>
@@ -992,8 +1024,14 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43746</v>
       </c>
@@ -1020,8 +1058,14 @@
       <c r="H20" s="23">
         <v>880</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="27"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="15" t="s">
         <v>1</v>
@@ -1041,8 +1085,14 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>43774</v>
       </c>
@@ -1069,8 +1119,14 @@
       <c r="H22" s="23">
         <v>492</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="27"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="15" t="s">
         <v>1</v>
@@ -1090,8 +1146,14 @@
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>43802</v>
       </c>
@@ -1118,8 +1180,14 @@
       <c r="H24" s="23">
         <v>803</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="27"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="15" t="s">
         <v>1</v>
@@ -1139,8 +1207,14 @@
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>43833</v>
       </c>
@@ -1167,8 +1241,14 @@
       <c r="H26" s="23">
         <v>1795</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" s="27"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="15" t="s">
         <v>1</v>
@@ -1188,8 +1268,14 @@
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27" s="27"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>43859</v>
       </c>
@@ -1216,8 +1302,14 @@
       <c r="H28" s="23">
         <v>987</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" s="27"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="15" t="s">
         <v>1</v>
@@ -1237,8 +1329,14 @@
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" s="27"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>43924</v>
       </c>
@@ -1265,8 +1363,14 @@
       <c r="H30" s="23">
         <v>2608</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" s="27"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="15" t="s">
         <v>1</v>
@@ -1286,8 +1390,14 @@
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31" s="27"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>43957</v>
       </c>
@@ -1314,8 +1424,14 @@
       <c r="H32" s="23">
         <v>883</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32" s="27"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="15" t="s">
         <v>1</v>
@@ -1335,8 +1451,14 @@
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="27"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>43984</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="H34" s="23">
         <v>879</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="27"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="15" t="s">
         <v>1</v>
@@ -1384,8 +1512,14 @@
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="27"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>44011</v>
       </c>
@@ -1412,8 +1546,14 @@
       <c r="H36" s="23">
         <v>909</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36" s="27"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="15" t="s">
         <v>1</v>
@@ -1433,8 +1573,14 @@
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37" s="27"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>44048</v>
       </c>
@@ -1461,8 +1607,14 @@
       <c r="H38" s="23">
         <v>1270</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38" s="27"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="15" t="s">
         <v>1</v>
@@ -1482,8 +1634,14 @@
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39" s="27"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>44076</v>
       </c>
@@ -1510,8 +1668,14 @@
       <c r="H40" s="23">
         <v>1054</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" s="27"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="15" t="s">
         <v>1</v>
@@ -1531,8 +1695,14 @@
       </c>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" s="27"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>44110</v>
       </c>
@@ -1559,8 +1729,14 @@
       <c r="H42" s="23">
         <v>1131</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" s="27"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="15" t="s">
         <v>1</v>
@@ -1580,8 +1756,14 @@
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" s="27"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>44138</v>
       </c>
@@ -1608,8 +1790,14 @@
       <c r="H44" s="23">
         <v>2177</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J44" s="27"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="15" t="s">
         <v>1</v>
@@ -1629,8 +1817,14 @@
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J45" s="27"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>44165</v>
       </c>
@@ -1657,8 +1851,14 @@
       <c r="H46" s="23">
         <v>837</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J46" s="27"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="15" t="s">
         <v>1</v>
@@ -1678,8 +1878,14 @@
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J47" s="27"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>44230</v>
       </c>
@@ -1706,8 +1912,14 @@
       <c r="H48" s="23">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J48" s="27"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="15" t="s">
         <v>1</v>
@@ -1727,8 +1939,14 @@
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J49" s="27"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>44266</v>
       </c>
@@ -1755,8 +1973,14 @@
       <c r="H50" s="23">
         <v>2008</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J50" s="27"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="15" t="s">
         <v>1</v>
@@ -1776,8 +2000,14 @@
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J51" s="27"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>43921</v>
       </c>
@@ -1804,8 +2034,14 @@
       <c r="H52" s="23">
         <v>1019</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52" s="27"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="15" t="s">
         <v>1</v>
@@ -1825,8 +2061,14 @@
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J53" s="27"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>44354</v>
       </c>
@@ -1853,8 +2095,14 @@
       <c r="H54" s="23">
         <v>1668</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J54" s="27"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="15" t="s">
         <v>1</v>
@@ -1874,8 +2122,14 @@
       </c>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J55" s="27"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>44375</v>
       </c>
@@ -1902,8 +2156,14 @@
       <c r="H56" s="23">
         <v>1180</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J56" s="27"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="15" t="s">
         <v>1</v>
@@ -1923,22 +2183,176 @@
       </c>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57" s="27"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>44413</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0</v>
+      </c>
+      <c r="D58" s="11">
+        <v>230</v>
+      </c>
+      <c r="E58" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="F58" s="22">
+        <f t="shared" ref="F58:F59" si="14">PRODUCT(D58,E58)</f>
+        <v>1140.8</v>
+      </c>
       <c r="G58" s="23">
-        <f>SUM(G4:G55)</f>
-        <v>32449.96</v>
+        <f>SUM(F58,F59)</f>
+        <v>1403.44</v>
       </c>
       <c r="H58" s="23">
-        <f>SUM(H4:H55)</f>
-        <v>32657</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G59" s="2"/>
-      <c r="H59" s="23">
-        <f>SUM(H58,-G58)</f>
-        <v>207.04000000000087</v>
+        <v>1404</v>
+      </c>
+      <c r="J58" s="27"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0</v>
+      </c>
+      <c r="D59" s="11">
+        <v>98</v>
+      </c>
+      <c r="E59" s="13">
+        <v>2.68</v>
+      </c>
+      <c r="F59" s="22">
+        <f t="shared" si="14"/>
+        <v>262.64000000000004</v>
+      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>44439</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11">
+        <v>146</v>
+      </c>
+      <c r="E60" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="F60" s="22">
+        <f t="shared" ref="F60:F61" si="15">PRODUCT(D60,E60)</f>
+        <v>724.16</v>
+      </c>
+      <c r="G60" s="23">
+        <f>SUM(F60,F61)</f>
+        <v>879.59999999999991</v>
+      </c>
+      <c r="H60" s="23">
+        <v>880</v>
+      </c>
+      <c r="J60" s="27"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0</v>
+      </c>
+      <c r="D61" s="11">
+        <v>58</v>
+      </c>
+      <c r="E61" s="13">
+        <v>2.68</v>
+      </c>
+      <c r="F61" s="22">
+        <f t="shared" si="15"/>
+        <v>155.44</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G64" s="23">
+        <f>SUM(G4:G61)</f>
+        <v>35912.42</v>
+      </c>
+      <c r="H64" s="23">
+        <f>SUM(H4:H61)</f>
+        <v>36121</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="2"/>
+      <c r="H65" s="23">
+        <f>SUM(H64,-G64)</f>
+        <v>208.58000000000175</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/298ee.xlsx
+++ b/sputnik/personal/ee/298ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -550,10 +550,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2313,14 +2313,32 @@
       <c r="O61" s="27"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="A62" s="14">
+        <v>44508</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="11">
+        <v>17741</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0</v>
+      </c>
+      <c r="E62" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="F62" s="22">
+        <f t="shared" ref="F62:F63" si="16">PRODUCT(D62,E62)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="23">
+        <f>SUM(F62,F63)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="23">
+        <v>1040</v>
+      </c>
       <c r="J62" s="27"/>
       <c r="K62" s="27"/>
       <c r="L62" s="27"/>
@@ -2330,35 +2348,117 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="22"/>
+      <c r="B63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11">
+        <v>7107</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0</v>
+      </c>
+      <c r="E63" s="13">
+        <v>2.68</v>
+      </c>
+      <c r="F63" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>44530</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="11">
+        <v>17881</v>
+      </c>
+      <c r="D64" s="11">
+        <f>SUM(C64,-C62)</f>
+        <v>140</v>
+      </c>
+      <c r="E64" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="F64" s="22">
+        <f t="shared" ref="F64:F65" si="17">PRODUCT(D64,E64)</f>
+        <v>694.4</v>
+      </c>
       <c r="G64" s="23">
-        <f>SUM(G4:G61)</f>
-        <v>35912.42</v>
+        <f>SUM(F64,F65)</f>
+        <v>844.48</v>
       </c>
       <c r="H64" s="23">
-        <f>SUM(H4:H61)</f>
-        <v>36121</v>
-      </c>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G65" s="2"/>
-      <c r="H65" s="23">
-        <f>SUM(H64,-G64)</f>
-        <v>208.58000000000175</v>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="11">
+        <v>7163</v>
+      </c>
+      <c r="D65" s="11">
+        <f>SUM(C65,-C63)</f>
+        <v>56</v>
+      </c>
+      <c r="E65" s="13">
+        <v>2.68</v>
+      </c>
+      <c r="F65" s="22">
+        <f t="shared" si="17"/>
+        <v>150.08000000000001</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="23">
+        <f>SUM(G2:G66)</f>
+        <v>36756.9</v>
+      </c>
+      <c r="H68" s="23">
+        <f>SUM(H4:H66)</f>
+        <v>38006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="2"/>
+      <c r="H69" s="23">
+        <f>SUM(H68,-G68)</f>
+        <v>1249.0999999999985</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
